--- a/po_analysis_by_asin/B0D54QJ9CJ_po_data.xlsx
+++ b/po_analysis_by_asin/B0D54QJ9CJ_po_data.xlsx
@@ -452,7 +452,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45467</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>20</v>
@@ -460,7 +460,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45481</v>
+        <v>45487.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>80</v>
@@ -468,7 +468,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45488</v>
+        <v>45494.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>80</v>
@@ -476,7 +476,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45502</v>
+        <v>45508.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>120</v>
@@ -484,7 +484,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45509</v>
+        <v>45515.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>280</v>
@@ -492,7 +492,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45516</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>120</v>
@@ -500,7 +500,7 @@
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45530</v>
+        <v>45536.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>200</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45537</v>
+        <v>45543.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>580</v>
@@ -516,7 +516,7 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45544</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B10" t="n">
         <v>220</v>
@@ -524,7 +524,7 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45551</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B11" t="n">
         <v>1340</v>
@@ -532,7 +532,7 @@
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45579</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B12" t="n">
         <v>20</v>
@@ -540,7 +540,7 @@
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45586</v>
+        <v>45592.99999999999</v>
       </c>
       <c r="B13" t="n">
         <v>700</v>
@@ -548,7 +548,7 @@
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45593</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B14" t="n">
         <v>320</v>
@@ -556,7 +556,7 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45607</v>
+        <v>45613.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>40</v>
@@ -595,7 +595,7 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45444</v>
+        <v>45473.99999999999</v>
       </c>
       <c r="B2" t="n">
         <v>20</v>
@@ -603,7 +603,7 @@
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45474</v>
+        <v>45504.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>280</v>
@@ -611,7 +611,7 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45505</v>
+        <v>45535.99999999999</v>
       </c>
       <c r="B4" t="n">
         <v>600</v>
@@ -619,7 +619,7 @@
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45536</v>
+        <v>45565.99999999999</v>
       </c>
       <c r="B5" t="n">
         <v>2140</v>
@@ -627,7 +627,7 @@
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45566</v>
+        <v>45596.99999999999</v>
       </c>
       <c r="B6" t="n">
         <v>1040</v>
@@ -635,7 +635,7 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45597</v>
+        <v>45626.99999999999</v>
       </c>
       <c r="B7" t="n">
         <v>40</v>

--- a/po_analysis_by_asin/B0D54QJ9CJ_po_data.xlsx
+++ b/po_analysis_by_asin/B0D54QJ9CJ_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -589,7 +590,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -639,6 +640,355 @@
       </c>
       <c r="B7" t="n">
         <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>137</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-304.4307845335903</v>
+      </c>
+      <c r="D2" t="n">
+        <v>546.3838193236775</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45487.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>170</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-279.3898657164173</v>
+      </c>
+      <c r="D3" t="n">
+        <v>611.2520013179035</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45494.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>186</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-261.6357501063221</v>
+      </c>
+      <c r="D4" t="n">
+        <v>633.4213625978099</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45508.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>218</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-199.8640034953189</v>
+      </c>
+      <c r="D5" t="n">
+        <v>637.8107158910641</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45515.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>234</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-211.6062353474807</v>
+      </c>
+      <c r="D6" t="n">
+        <v>657.3909917609443</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>250</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-162.5952574308227</v>
+      </c>
+      <c r="D7" t="n">
+        <v>709.2435630845264</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45536.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>283</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-121.8465023084227</v>
+      </c>
+      <c r="D8" t="n">
+        <v>700.1009759535943</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45543.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>299</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-146.1659260207618</v>
+      </c>
+      <c r="D9" t="n">
+        <v>734.3242818162198</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>315</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-101.006277581766</v>
+      </c>
+      <c r="D10" t="n">
+        <v>738.1127763991782</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>331</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-100.1279509449282</v>
+      </c>
+      <c r="D11" t="n">
+        <v>747.2787739822336</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>396</v>
+      </c>
+      <c r="C12" t="n">
+        <v>16.71531126755297</v>
+      </c>
+      <c r="D12" t="n">
+        <v>799.7390785247901</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45592.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>412</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-15.38840843791121</v>
+      </c>
+      <c r="D13" t="n">
+        <v>826.6364122101511</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>428</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-34.74314219459435</v>
+      </c>
+      <c r="D14" t="n">
+        <v>833.9740334359805</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>461</v>
+      </c>
+      <c r="C15" t="n">
+        <v>49.49710866673044</v>
+      </c>
+      <c r="D15" t="n">
+        <v>895.1178116678025</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>477</v>
+      </c>
+      <c r="C16" t="n">
+        <v>74.73542065684317</v>
+      </c>
+      <c r="D16" t="n">
+        <v>897.261102573701</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>493</v>
+      </c>
+      <c r="C17" t="n">
+        <v>74.72781724546317</v>
+      </c>
+      <c r="D17" t="n">
+        <v>909.7433306217238</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>509</v>
+      </c>
+      <c r="C18" t="n">
+        <v>116.6429186475728</v>
+      </c>
+      <c r="D18" t="n">
+        <v>925.2884518720851</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>525</v>
+      </c>
+      <c r="C19" t="n">
+        <v>97.34844136047836</v>
+      </c>
+      <c r="D19" t="n">
+        <v>975.0285578880989</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>541</v>
+      </c>
+      <c r="C20" t="n">
+        <v>104.3663646870781</v>
+      </c>
+      <c r="D20" t="n">
+        <v>976.5229486052755</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>558</v>
+      </c>
+      <c r="C21" t="n">
+        <v>99.25521878760424</v>
+      </c>
+      <c r="D21" t="n">
+        <v>971.5211144668652</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45662.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>574</v>
+      </c>
+      <c r="C22" t="n">
+        <v>174.8454869857925</v>
+      </c>
+      <c r="D22" t="n">
+        <v>990.6500173269834</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45669.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>590</v>
+      </c>
+      <c r="C23" t="n">
+        <v>136.2058086749927</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1026.30139014597</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0D54QJ9CJ_po_data.xlsx
+++ b/po_analysis_by_asin/B0D54QJ9CJ_po_data.xlsx
@@ -653,7 +653,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D23"/>
+  <dimension ref="A1:B23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -672,16 +672,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -690,12 +680,6 @@
       <c r="B2" t="n">
         <v>137</v>
       </c>
-      <c r="C2" t="n">
-        <v>-304.4307845335903</v>
-      </c>
-      <c r="D2" t="n">
-        <v>546.3838193236775</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -704,12 +688,6 @@
       <c r="B3" t="n">
         <v>170</v>
       </c>
-      <c r="C3" t="n">
-        <v>-279.3898657164173</v>
-      </c>
-      <c r="D3" t="n">
-        <v>611.2520013179035</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -718,12 +696,6 @@
       <c r="B4" t="n">
         <v>186</v>
       </c>
-      <c r="C4" t="n">
-        <v>-261.6357501063221</v>
-      </c>
-      <c r="D4" t="n">
-        <v>633.4213625978099</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -732,12 +704,6 @@
       <c r="B5" t="n">
         <v>218</v>
       </c>
-      <c r="C5" t="n">
-        <v>-199.8640034953189</v>
-      </c>
-      <c r="D5" t="n">
-        <v>637.8107158910641</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -746,12 +712,6 @@
       <c r="B6" t="n">
         <v>234</v>
       </c>
-      <c r="C6" t="n">
-        <v>-211.6062353474807</v>
-      </c>
-      <c r="D6" t="n">
-        <v>657.3909917609443</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -760,12 +720,6 @@
       <c r="B7" t="n">
         <v>250</v>
       </c>
-      <c r="C7" t="n">
-        <v>-162.5952574308227</v>
-      </c>
-      <c r="D7" t="n">
-        <v>709.2435630845264</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -774,12 +728,6 @@
       <c r="B8" t="n">
         <v>283</v>
       </c>
-      <c r="C8" t="n">
-        <v>-121.8465023084227</v>
-      </c>
-      <c r="D8" t="n">
-        <v>700.1009759535943</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -788,12 +736,6 @@
       <c r="B9" t="n">
         <v>299</v>
       </c>
-      <c r="C9" t="n">
-        <v>-146.1659260207618</v>
-      </c>
-      <c r="D9" t="n">
-        <v>734.3242818162198</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -802,12 +744,6 @@
       <c r="B10" t="n">
         <v>315</v>
       </c>
-      <c r="C10" t="n">
-        <v>-101.006277581766</v>
-      </c>
-      <c r="D10" t="n">
-        <v>738.1127763991782</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -816,12 +752,6 @@
       <c r="B11" t="n">
         <v>331</v>
       </c>
-      <c r="C11" t="n">
-        <v>-100.1279509449282</v>
-      </c>
-      <c r="D11" t="n">
-        <v>747.2787739822336</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -830,12 +760,6 @@
       <c r="B12" t="n">
         <v>396</v>
       </c>
-      <c r="C12" t="n">
-        <v>16.71531126755297</v>
-      </c>
-      <c r="D12" t="n">
-        <v>799.7390785247901</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -844,12 +768,6 @@
       <c r="B13" t="n">
         <v>412</v>
       </c>
-      <c r="C13" t="n">
-        <v>-15.38840843791121</v>
-      </c>
-      <c r="D13" t="n">
-        <v>826.6364122101511</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -858,12 +776,6 @@
       <c r="B14" t="n">
         <v>428</v>
       </c>
-      <c r="C14" t="n">
-        <v>-34.74314219459435</v>
-      </c>
-      <c r="D14" t="n">
-        <v>833.9740334359805</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -872,12 +784,6 @@
       <c r="B15" t="n">
         <v>461</v>
       </c>
-      <c r="C15" t="n">
-        <v>49.49710866673044</v>
-      </c>
-      <c r="D15" t="n">
-        <v>895.1178116678025</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -886,12 +792,6 @@
       <c r="B16" t="n">
         <v>477</v>
       </c>
-      <c r="C16" t="n">
-        <v>74.73542065684317</v>
-      </c>
-      <c r="D16" t="n">
-        <v>897.261102573701</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -900,12 +800,6 @@
       <c r="B17" t="n">
         <v>493</v>
       </c>
-      <c r="C17" t="n">
-        <v>74.72781724546317</v>
-      </c>
-      <c r="D17" t="n">
-        <v>909.7433306217238</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -914,12 +808,6 @@
       <c r="B18" t="n">
         <v>509</v>
       </c>
-      <c r="C18" t="n">
-        <v>116.6429186475728</v>
-      </c>
-      <c r="D18" t="n">
-        <v>925.2884518720851</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -928,12 +816,6 @@
       <c r="B19" t="n">
         <v>525</v>
       </c>
-      <c r="C19" t="n">
-        <v>97.34844136047836</v>
-      </c>
-      <c r="D19" t="n">
-        <v>975.0285578880989</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -942,12 +824,6 @@
       <c r="B20" t="n">
         <v>541</v>
       </c>
-      <c r="C20" t="n">
-        <v>104.3663646870781</v>
-      </c>
-      <c r="D20" t="n">
-        <v>976.5229486052755</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -956,12 +832,6 @@
       <c r="B21" t="n">
         <v>558</v>
       </c>
-      <c r="C21" t="n">
-        <v>99.25521878760424</v>
-      </c>
-      <c r="D21" t="n">
-        <v>971.5211144668652</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -970,12 +840,6 @@
       <c r="B22" t="n">
         <v>574</v>
       </c>
-      <c r="C22" t="n">
-        <v>174.8454869857925</v>
-      </c>
-      <c r="D22" t="n">
-        <v>990.6500173269834</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -983,12 +847,6 @@
       </c>
       <c r="B23" t="n">
         <v>590</v>
-      </c>
-      <c r="C23" t="n">
-        <v>136.2058086749927</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1026.30139014597</v>
       </c>
     </row>
   </sheetData>
